--- a/scimagojr/scimagojr_2013.xlsx
+++ b/scimagojr/scimagojr_2013.xlsx
@@ -176,12 +176,12 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -191,12 +191,12 @@
     <t>Ireland</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -272,12 +272,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -287,12 +287,12 @@
     <t>Belarus</t>
   </si>
   <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -383,12 +383,12 @@
     <t>Palestine</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -398,33 +398,33 @@
     <t>Botswana</t>
   </si>
   <si>
+    <t>Moldova</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Congo</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -440,24 +440,24 @@
     <t>Bolivia</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
     <t>Mauritius</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -467,12 +467,12 @@
     <t>Laos</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
     <t>Gabon</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -488,12 +488,12 @@
     <t>Barbados</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -503,12 +503,12 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>Liechtenstein</t>
   </si>
   <si>
@@ -524,7 +524,10 @@
     <t>Haïti</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
   <si>
     <t>Honduras</t>
@@ -533,9 +536,6 @@
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -557,18 +557,18 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
@@ -581,18 +581,18 @@
     <t>Lesotho</t>
   </si>
   <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -602,24 +602,24 @@
     <t>Dominica</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Cape Verde</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
@@ -629,19 +629,22 @@
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
     <t>Comoros</t>
   </si>
   <si>
+    <t>Samoa</t>
+  </si>
+  <si>
     <t>Djibouti</t>
   </si>
   <si>
-    <t>Samoa</t>
+    <t>Somalia</t>
   </si>
   <si>
     <t>Turkmenistan</t>
@@ -650,15 +653,12 @@
     <t>Andorra</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>North Korea</t>
   </si>
   <si>
     <t>Maldives</t>
   </si>
   <si>
-    <t>North Korea</t>
-  </si>
-  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
@@ -671,31 +671,34 @@
     <t>Netherlands Antilles</t>
   </si>
   <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>American Samoa</t>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Cook Islands</t>
@@ -704,61 +707,58 @@
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
     <t>United States Minor Outlying Islands</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Nauru</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
     <t>Tuvalu</t>
   </si>
   <si>
     <t>Norfolk Island</t>
   </si>
   <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
     <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
   </si>
 </sst>
 </file>
@@ -902,22 +902,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>682884</v>
+        <v>688442</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>563124</v>
+        <v>564747</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>17405549</v>
+        <v>21548210</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>7469121</v>
+        <v>8764648</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>25.49</v>
+        <v>31.3</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>456875</v>
+        <v>455666</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>447437</v>
+        <v>447366</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>6776132</v>
+        <v>8231150</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3893995</v>
+        <v>4665468</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.83</v>
+        <v>18.06</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -960,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>207109</v>
+        <v>209859</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>159401</v>
+        <v>160057</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5269174</v>
+        <v>6523276</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1201755</v>
+        <v>1392303</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>25.44</v>
+        <v>31.08</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -989,22 +989,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>172493</v>
+        <v>172783</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>153633</v>
+        <v>153961</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4314963</v>
+        <v>5251257</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1036239</v>
+        <v>1175639</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>25.02</v>
+        <v>30.39</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1018,22 +1018,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>137884</v>
+        <v>138043</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>128549</v>
+        <v>128978</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2331850</v>
+        <v>2831376</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>571197</v>
+        <v>651065</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>16.91</v>
+        <v>20.51</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1047,22 +1047,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>123242</v>
+        <v>123240</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>109839</v>
+        <v>109950</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2944697</v>
+        <v>3581924</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>586962</v>
+        <v>661933</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>23.89</v>
+        <v>29.06</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1076,22 +1076,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>118292</v>
+        <v>118071</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>108844</v>
+        <v>108992</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1625245</v>
+        <v>2045182</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>554948</v>
+        <v>700104</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>13.74</v>
+        <v>17.32</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1105,22 +1105,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>106447</v>
+        <v>106482</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>93322</v>
+        <v>93506</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2545655</v>
+        <v>3083508</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>622888</v>
+        <v>707610</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>23.91</v>
+        <v>28.96</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1134,22 +1134,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>104726</v>
+        <v>105204</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>89544</v>
+        <v>89748</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2800914</v>
+        <v>3468577</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>472491</v>
+        <v>546074</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>26.75</v>
+        <v>32.97</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1163,22 +1163,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>91388</v>
+        <v>91983</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>76811</v>
+        <v>77029</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2465560</v>
+        <v>3047856</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>498278</v>
+        <v>571968</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>26.98</v>
+        <v>33.13</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1192,22 +1192,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>88464</v>
+        <v>88315</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>79506</v>
+        <v>79557</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2071334</v>
+        <v>2524832</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>427936</v>
+        <v>486828</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>23.41</v>
+        <v>28.59</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1221,22 +1221,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>75643</v>
+        <v>75277</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>72292</v>
+        <v>72373</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1467123</v>
+        <v>1788683</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>273117</v>
+        <v>304635</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>19.4</v>
+        <v>23.76</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1250,22 +1250,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>64969</v>
+        <v>64866</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>60731</v>
+        <v>60747</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>995634</v>
+        <v>1231621</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>318869</v>
+        <v>375531</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>15.32</v>
+        <v>18.99</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1279,22 +1279,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>59184</v>
+        <v>59312</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>51122</v>
+        <v>51298</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1963725</v>
+        <v>2416517</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>289920</v>
+        <v>327084</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>33.18</v>
+        <v>40.74</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1308,22 +1308,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>50499</v>
+        <v>50653</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>48096</v>
+        <v>48314</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>537760</v>
+        <v>636850</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>204299</v>
+        <v>231726</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>10.65</v>
+        <v>12.57</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1337,22 +1337,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>44349</v>
+        <v>44128</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>42310</v>
+        <v>42281</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>725692</v>
+        <v>881853</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>116521</v>
+        <v>128947</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>16.36</v>
+        <v>19.98</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1366,22 +1366,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>43790</v>
+        <v>43822</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>38626</v>
+        <v>38719</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1483186</v>
+        <v>1811095</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>192502</v>
+        <v>214675</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>33.87</v>
+        <v>41.33</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1395,22 +1395,22 @@
         <v>33</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>42352</v>
+        <v>42231</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>40794</v>
+        <v>40854</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>651657</v>
+        <v>806622</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>214999</v>
+        <v>246609</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>15.39</v>
+        <v>19.1</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1424,22 +1424,22 @@
         <v>33</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>40481</v>
+        <v>40437</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>37154</v>
+        <v>37185</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>531495</v>
+        <v>661910</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>110619</v>
+        <v>131175</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>13.13</v>
+        <v>16.37</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1453,22 +1453,22 @@
         <v>29</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>39798</v>
+        <v>39876</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>37746</v>
+        <v>37779</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>583541</v>
+        <v>701428</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>148514</v>
+        <v>165644</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>14.66</v>
+        <v>17.59</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1482,22 +1482,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>38004</v>
+        <v>38087</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>33459</v>
+        <v>33492</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1166826</v>
+        <v>1427306</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>163035</v>
+        <v>182842</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>30.7</v>
+        <v>37.47</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1511,22 +1511,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>32567</v>
+        <v>32626</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>28735</v>
+        <v>28798</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>994441</v>
+        <v>1216633</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>119744</v>
+        <v>132391</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>30.54</v>
+        <v>37.29</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1540,22 +1540,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>25687</v>
+        <v>25611</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>24550</v>
+        <v>24513</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>364204</v>
+        <v>461882</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>86295</v>
+        <v>99042</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>14.18</v>
+        <v>18.03</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1569,22 +1569,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>24679</v>
+        <v>24783</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>21362</v>
+        <v>21444</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>800086</v>
+        <v>984362</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>107695</v>
+        <v>120641</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>32.42</v>
+        <v>39.72</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1598,22 +1598,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>24161</v>
+        <v>24233</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>21320</v>
+        <v>21368</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>652015</v>
+        <v>799966</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>78930</v>
+        <v>87914</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>26.99</v>
+        <v>33.01</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1627,22 +1627,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>23003</v>
+        <v>22992</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>20424</v>
+        <v>20456</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>514146</v>
+        <v>633151</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>84724</v>
+        <v>96039</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>22.35</v>
+        <v>27.54</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1656,22 +1656,22 @@
         <v>29</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>20857</v>
+        <v>20841</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>19694</v>
+        <v>19713</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>350692</v>
+        <v>417973</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>68879</v>
+        <v>75362</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>16.81</v>
+        <v>20.06</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1685,22 +1685,22 @@
         <v>33</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>20126</v>
+        <v>20174</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>17302</v>
+        <v>17353</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>521396</v>
+        <v>635761</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>63960</v>
+        <v>72606</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>25.91</v>
+        <v>31.51</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1714,22 +1714,22 @@
         <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>20064</v>
+        <v>20087</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>17008</v>
+        <v>17034</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>570046</v>
+        <v>693751</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>76805</v>
+        <v>87230</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>28.41</v>
+        <v>34.54</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1743,22 +1743,22 @@
         <v>26</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>19962</v>
+        <v>19965</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>18281</v>
+        <v>18306</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>318211</v>
+        <v>393543</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>61254</v>
+        <v>71685</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>15.94</v>
+        <v>19.71</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1772,22 +1772,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>19557</v>
+        <v>19565</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>17397</v>
+        <v>17448</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>641867</v>
+        <v>777275</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>63194</v>
+        <v>68484</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>32.82</v>
+        <v>39.73</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1801,22 +1801,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>19453</v>
+        <v>19529</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>17393</v>
+        <v>17428</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>528311</v>
+        <v>644415</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>74687</v>
+        <v>83394</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>27.16</v>
+        <v>33</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1830,22 +1830,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>19406</v>
+        <v>19413</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>17118</v>
+        <v>17142</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>427226</v>
+        <v>517846</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>58466</v>
+        <v>66158</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22.02</v>
+        <v>26.68</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1859,22 +1859,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>18492</v>
+        <v>18533</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>16465</v>
+        <v>16492</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>520274</v>
+        <v>638804</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>57860</v>
+        <v>64294</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>28.14</v>
+        <v>34.47</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1888,22 +1888,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>17955</v>
+        <v>18119</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>15837</v>
+        <v>15940</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>365125</v>
+        <v>456429</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>76725</v>
+        <v>90367</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>20.34</v>
+        <v>25.19</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1917,22 +1917,22 @@
         <v>29</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>15522</v>
+        <v>15594</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>14808</v>
+        <v>14851</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>172538</v>
+        <v>205445</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>36431</v>
+        <v>40489</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>11.12</v>
+        <v>13.17</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1943,25 +1943,25 @@
         <v>53</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>15419</v>
+        <v>15353</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>14695</v>
+        <v>12726</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>358942</v>
+        <v>478434</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>50564</v>
+        <v>56511</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>23.28</v>
+        <v>31.16</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>478</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1972,25 +1972,25 @@
         <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>15245</v>
+        <v>15352</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>12697</v>
+        <v>14707</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>383686</v>
+        <v>438088</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>49594</v>
+        <v>58490</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>25.17</v>
+        <v>28.54</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>633</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2004,22 +2004,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>14876</v>
+        <v>14890</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>14179</v>
+        <v>14267</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>230051</v>
+        <v>287996</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>46991</v>
+        <v>56685</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>15.46</v>
+        <v>19.34</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2033,22 +2033,22 @@
         <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>13664</v>
+        <v>13736</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>11501</v>
+        <v>11531</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>368864</v>
+        <v>453178</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>38680</v>
+        <v>43040</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>27</v>
+        <v>32.99</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2059,25 +2059,25 @@
         <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>12595</v>
+        <v>12563</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>11831</v>
+        <v>11454</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>201498</v>
+        <v>289795</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>31890</v>
+        <v>50202</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>16</v>
+        <v>23.07</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2088,25 +2088,25 @@
         <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>12583</v>
+        <v>12558</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>11446</v>
+        <v>11814</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>239478</v>
+        <v>251900</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>43172</v>
+        <v>37399</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>19.03</v>
+        <v>20.06</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>510</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2120,22 +2120,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>11697</v>
+        <v>11676</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>11168</v>
+        <v>11171</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>188688</v>
+        <v>237401</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>40980</v>
+        <v>49408</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>16.13</v>
+        <v>20.33</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2149,22 +2149,22 @@
         <v>29</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>10631</v>
+        <v>10635</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>9701</v>
+        <v>9727</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>206654</v>
+        <v>249740</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>31036</v>
+        <v>34710</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>19.44</v>
+        <v>23.48</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2178,22 +2178,22 @@
         <v>29</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>10204</v>
+        <v>10219</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>9882</v>
+        <v>9890</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>92858</v>
+        <v>109690</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>27859</v>
+        <v>32182</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>9.1</v>
+        <v>10.73</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2207,22 +2207,22 @@
         <v>26</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>9430</v>
+        <v>9395</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>8803</v>
+        <v>8811</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>203201</v>
+        <v>246989</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>38825</v>
+        <v>44891</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>21.55</v>
+        <v>26.29</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2239,19 +2239,19 @@
         <v>7807</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>7254</v>
+        <v>7255</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>108329</v>
+        <v>132329</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>20270</v>
+        <v>22731</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>13.88</v>
+        <v>16.95</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2265,22 +2265,22 @@
         <v>26</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>7597</v>
+        <v>7637</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>7058</v>
+        <v>7081</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>111454</v>
+        <v>136616</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>18735</v>
+        <v>21601</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>14.67</v>
+        <v>17.89</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2294,22 +2294,22 @@
         <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>6841</v>
+        <v>6842</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>6536</v>
+        <v>6542</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>86594</v>
+        <v>103323</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>19371</v>
+        <v>21343</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>12.66</v>
+        <v>15.1</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2323,22 +2323,22 @@
         <v>29</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>6716</v>
+        <v>6733</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>6325</v>
+        <v>6342</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>92260</v>
+        <v>112421</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>14444</v>
+        <v>16544</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>13.74</v>
+        <v>16.7</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2352,22 +2352,22 @@
         <v>29</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>6257</v>
+        <v>6273</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>5764</v>
+        <v>5776</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>114878</v>
+        <v>139985</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>16349</v>
+        <v>18204</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>18.36</v>
+        <v>22.32</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2381,22 +2381,22 @@
         <v>51</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>6249</v>
+        <v>6226</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>5821</v>
+        <v>5830</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>71545</v>
+        <v>88023</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>14906</v>
+        <v>17205</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>11.45</v>
+        <v>14.14</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2410,22 +2410,22 @@
         <v>51</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>6049</v>
+        <v>6099</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>5539</v>
+        <v>5575</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>52899</v>
+        <v>69078</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>12215</v>
+        <v>15630</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>8.75</v>
+        <v>11.33</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2439,22 +2439,22 @@
         <v>12</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>5465</v>
+        <v>5534</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>5118</v>
+        <v>5187</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>71522</v>
+        <v>90614</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>15469</v>
+        <v>19245</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>13.09</v>
+        <v>16.37</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2468,22 +2468,22 @@
         <v>51</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>5041</v>
+        <v>5029</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>4891</v>
+        <v>4882</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>54414</v>
+        <v>67981</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>12453</v>
+        <v>14780</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>10.79</v>
+        <v>13.52</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2497,22 +2497,22 @@
         <v>29</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>4287</v>
+        <v>4301</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>3973</v>
+        <v>3983</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>56368</v>
+        <v>67582</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>8386</v>
+        <v>9479</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>13.15</v>
+        <v>15.71</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2526,22 +2526,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>3987</v>
+        <v>3965</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>3655</v>
+        <v>3643</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>46912</v>
+        <v>57650</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>9741</v>
+        <v>11691</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>11.77</v>
+        <v>14.54</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2555,22 +2555,22 @@
         <v>12</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>3788</v>
+        <v>3783</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>3570</v>
+        <v>3575</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>60777</v>
+        <v>73757</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>10518</v>
+        <v>12225</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>16.04</v>
+        <v>19.5</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2584,22 +2584,22 @@
         <v>33</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>3605</v>
+        <v>3614</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>3262</v>
+        <v>3272</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>69235</v>
+        <v>86819</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>6672</v>
+        <v>7719</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>19.21</v>
+        <v>24.02</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2613,22 +2613,22 @@
         <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>3450</v>
+        <v>3471</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>3207</v>
+        <v>3223</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>55957</v>
+        <v>72838</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>9435</v>
+        <v>11686</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>16.22</v>
+        <v>20.98</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2642,22 +2642,22 @@
         <v>29</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>3197</v>
+        <v>3172</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>3045</v>
+        <v>3030</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>51603</v>
+        <v>60399</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>8132</v>
+        <v>8850</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>16.14</v>
+        <v>19.04</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2671,22 +2671,22 @@
         <v>29</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2846</v>
+        <v>2851</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>80049</v>
+        <v>95789</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>9566</v>
+        <v>10413</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>28.13</v>
+        <v>33.6</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2700,22 +2700,22 @@
         <v>33</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>31073</v>
+        <v>39879</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>4804</v>
+        <v>6095</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>12.1</v>
+        <v>15.55</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2729,22 +2729,22 @@
         <v>26</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>23471</v>
+        <v>27943</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3797</v>
+        <v>4317</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>9.52</v>
+        <v>11.34</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2758,22 +2758,22 @@
         <v>51</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>60900</v>
+        <v>77218</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>8505</v>
+        <v>9987</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>24.99</v>
+        <v>31.63</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2787,22 +2787,22 @@
         <v>33</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>36709</v>
+        <v>44554</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3499</v>
+        <v>3940</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>16.32</v>
+        <v>19.81</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2816,22 +2816,22 @@
         <v>14</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1867</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>46567</v>
+        <v>56890</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>5292</v>
+        <v>5800</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>21.59</v>
+        <v>26.4</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2842,25 +2842,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>2007</v>
+        <v>2047</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1862</v>
+        <v>1792</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>23063</v>
+        <v>48760</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>2104</v>
+        <v>4924</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>11.49</v>
+        <v>23.82</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>254</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2871,25 +2871,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1752</v>
+        <v>1864</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>38846</v>
+        <v>28488</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4094</v>
+        <v>2311</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>19.39</v>
+        <v>14.16</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2903,22 +2903,22 @@
         <v>33</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1938</v>
+        <v>1949</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1770</v>
+        <v>1782</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>43196</v>
+        <v>53191</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4479</v>
+        <v>4890</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>22.29</v>
+        <v>27.29</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2932,22 +2932,22 @@
         <v>12</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1826</v>
+        <v>1813</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>10962</v>
+        <v>13595</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2672</v>
+        <v>3206</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2961,22 +2961,22 @@
         <v>29</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>28071</v>
+        <v>31803</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>5625</v>
+        <v>5868</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>15.64</v>
+        <v>17.71</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2987,25 +2987,25 @@
         <v>90</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1712</v>
+        <v>1546</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>21780</v>
+        <v>54423</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4049</v>
+        <v>4502</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>12.25</v>
+        <v>30.64</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>155</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3016,25 +3016,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1543</v>
+        <v>1715</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>44205</v>
+        <v>28161</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>4185</v>
+        <v>5295</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>25</v>
+        <v>15.87</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3048,22 +3048,22 @@
         <v>29</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>21372</v>
+        <v>25069</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>3027</v>
+        <v>3340</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>12.54</v>
+        <v>14.69</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3077,22 +3077,22 @@
         <v>51</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>32136</v>
+        <v>41927</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>9076</v>
+        <v>12157</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>19.94</v>
+        <v>26.09</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3106,22 +3106,22 @@
         <v>26</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1380</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>39344</v>
+        <v>48865</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>4581</v>
+        <v>5591</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>24.62</v>
+        <v>30.66</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3135,22 +3135,22 @@
         <v>33</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>18229</v>
+        <v>22603</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1902</v>
+        <v>2169</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>12.43</v>
+        <v>15.5</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3164,22 +3164,22 @@
         <v>14</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>59652</v>
+        <v>66505</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>4551</v>
+        <v>5103</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>40.89</v>
+        <v>45.65</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3193,22 +3193,22 @@
         <v>51</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>30582</v>
+        <v>38975</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>4354</v>
+        <v>5551</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>22.34</v>
+        <v>28.28</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3222,22 +3222,22 @@
         <v>33</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>21830</v>
+        <v>26560</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2202</v>
+        <v>2503</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>16.28</v>
+        <v>19.78</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3254,19 +3254,19 @@
         <v>1315</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>22355</v>
+        <v>27786</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>2273</v>
+        <v>2751</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>17</v>
+        <v>21.13</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3280,22 +3280,22 @@
         <v>12</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>24648</v>
+        <v>30647</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>2670</v>
+        <v>2894</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>18.96</v>
+        <v>23.52</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3309,22 +3309,22 @@
         <v>51</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>30414</v>
+        <v>37444</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>4686</v>
+        <v>5570</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>24.45</v>
+        <v>30.17</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3338,22 +3338,22 @@
         <v>26</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1074</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>24911</v>
+        <v>30520</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>3161</v>
+        <v>3639</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>21.11</v>
+        <v>25.97</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3367,22 +3367,22 @@
         <v>51</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>30428</v>
+        <v>38013</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4113</v>
+        <v>4899</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>26.1</v>
+        <v>32.69</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3396,22 +3396,22 @@
         <v>29</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>23078</v>
+        <v>26005</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3834</v>
+        <v>4004</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>20.7</v>
+        <v>23.12</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3425,22 +3425,22 @@
         <v>51</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>19638</v>
+        <v>24307</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3597</v>
+        <v>4334</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>17.98</v>
+        <v>22.32</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3454,22 +3454,22 @@
         <v>29</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>25502</v>
+        <v>27361</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>5371</v>
+        <v>5697</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>23.63</v>
+        <v>25.64</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3483,22 +3483,22 @@
         <v>12</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>18890</v>
+        <v>23125</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>2475</v>
+        <v>2991</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>18.29</v>
+        <v>22.3</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3512,22 +3512,22 @@
         <v>29</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>8741</v>
+        <v>10829</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>802</v>
+        <v>929</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>10.06</v>
+        <v>12.42</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3541,22 +3541,22 @@
         <v>26</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>23954</v>
+        <v>28360</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>951</v>
+        <v>1083</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>27.98</v>
+        <v>32.71</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3570,22 +3570,22 @@
         <v>29</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>9355</v>
+        <v>10604</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1075</v>
+        <v>1221</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>10.97</v>
+        <v>12.33</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3602,19 +3602,19 @@
         <v>790</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>10054</v>
+        <v>11809</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>2355</v>
+        <v>2638</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>12.73</v>
+        <v>14.95</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3628,22 +3628,22 @@
         <v>26</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>699</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>25544</v>
+        <v>31386</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>2294</v>
+        <v>2682</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>32.83</v>
+        <v>40.45</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3657,22 +3657,22 @@
         <v>51</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>9437</v>
+        <v>12053</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>843</v>
+        <v>950</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>12.3</v>
+        <v>15.78</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3686,22 +3686,22 @@
         <v>26</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>16361</v>
+        <v>17798</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1558</v>
+        <v>1747</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>22.5</v>
+        <v>24.31</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3715,22 +3715,22 @@
         <v>51</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>591</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>9747</v>
+        <v>11864</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1132</v>
+        <v>1308</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>14.68</v>
+        <v>17.98</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3744,22 +3744,22 @@
         <v>14</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>9755</v>
+        <v>12118</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>989</v>
+        <v>1145</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>15.19</v>
+        <v>18.93</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3776,19 +3776,19 @@
         <v>582</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>12910</v>
+        <v>16492</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1630</v>
+        <v>1977</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>22.18</v>
+        <v>28.34</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3802,22 +3802,22 @@
         <v>33</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>8158</v>
+        <v>10308</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>14.11</v>
+        <v>17.93</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3831,22 +3831,22 @@
         <v>12</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>4935</v>
+        <v>6330</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1453</v>
+        <v>1924</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>8.7</v>
+        <v>11.14</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3860,22 +3860,22 @@
         <v>29</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>2022</v>
+        <v>2512</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>3.78</v>
+        <v>4.65</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3889,22 +3889,22 @@
         <v>33</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>7813</v>
+        <v>9889</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>917</v>
+        <v>1089</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>14.97</v>
+        <v>18.76</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3915,25 +3915,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>496</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>15134</v>
+        <v>6317</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1758</v>
+        <v>275</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>30.51</v>
+        <v>12.74</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3944,25 +3944,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5122</v>
+        <v>18900</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>250</v>
+        <v>1996</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>10.33</v>
+        <v>38.41</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>94</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3979,19 +3979,19 @@
         <v>489</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>5710</v>
+        <v>7284</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>11.68</v>
+        <v>14.9</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4005,22 +4005,22 @@
         <v>51</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>409</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>12556</v>
+        <v>14931</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1482</v>
+        <v>1674</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>26.83</v>
+        <v>32.04</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4034,22 +4034,22 @@
         <v>51</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>6721</v>
+        <v>7538</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>582</v>
+        <v>705</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>15.07</v>
+        <v>16.86</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4060,25 +4060,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>7720</v>
+        <v>5590</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1019</v>
+        <v>830</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>17.95</v>
+        <v>13.03</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4089,25 +4089,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>4700</v>
+        <v>9428</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>742</v>
+        <v>1221</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>11.03</v>
+        <v>22.08</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4121,22 +4121,22 @@
         <v>51</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>403</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>6229</v>
+        <v>7591</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>918</v>
+        <v>1090</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>14.66</v>
+        <v>17.9</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4147,25 +4147,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>6389</v>
+        <v>12747</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>763</v>
+        <v>476</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>15.28</v>
+        <v>30.21</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4176,25 +4176,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>10808</v>
+        <v>7881</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>432</v>
+        <v>906</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>26.04</v>
+        <v>18.94</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4214,16 +4214,16 @@
         <v>346</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>11357</v>
+        <v>13059</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1212</v>
+        <v>1411</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>27.9</v>
+        <v>32.09</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4237,22 +4237,22 @@
         <v>51</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>8084</v>
+        <v>10068</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>20.89</v>
+        <v>26.15</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4263,25 +4263,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>6227</v>
+        <v>5518</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>602</v>
+        <v>353</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>17.06</v>
+        <v>15.33</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4292,25 +4292,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>4333</v>
+        <v>8180</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>297</v>
+        <v>686</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>12.07</v>
+        <v>22.72</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4324,22 +4324,22 @@
         <v>29</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2918</v>
+        <v>3448</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>8.53</v>
+        <v>10.02</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4353,22 +4353,22 @@
         <v>51</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4642</v>
+        <v>5681</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>513</v>
+        <v>626</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>13.94</v>
+        <v>16.96</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4382,22 +4382,22 @@
         <v>51</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>278</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>4704</v>
+        <v>5804</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>821</v>
+        <v>1015</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>15.32</v>
+        <v>18.78</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4411,22 +4411,22 @@
         <v>12</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>3221</v>
+        <v>4076</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>10.67</v>
+        <v>13.41</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4443,19 +4443,19 @@
         <v>288</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>7898</v>
+        <v>9877</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>568</v>
+        <v>654</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>27.42</v>
+        <v>34.3</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4466,25 +4466,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>278</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>5992</v>
+        <v>9461</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>797</v>
+        <v>1088</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>21.55</v>
+        <v>34.03</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4495,25 +4495,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>7842</v>
+        <v>6381</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>1010</v>
+        <v>877</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>28.31</v>
+        <v>23.12</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4527,22 +4527,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>215</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>4716</v>
+        <v>5929</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>18.49</v>
+        <v>22.98</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4556,22 +4556,22 @@
         <v>51</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>5080</v>
+        <v>6520</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>20.16</v>
+        <v>26.08</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4585,22 +4585,22 @@
         <v>51</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>7529</v>
+        <v>6070</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>719</v>
+        <v>641</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>30.12</v>
+        <v>24.57</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4617,19 +4617,19 @@
         <v>247</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>4944</v>
+        <v>9222</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>539</v>
+        <v>806</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>20.02</v>
+        <v>37.34</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4643,22 +4643,22 @@
         <v>26</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>195</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>5398</v>
+        <v>6594</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>23.78</v>
+        <v>28.92</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4672,22 +4672,22 @@
         <v>51</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>203</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>8076</v>
+        <v>10037</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>36.05</v>
+        <v>45.01</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4707,16 +4707,16 @@
         <v>194</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>4120</v>
+        <v>5098</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>19.81</v>
+        <v>24.51</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4727,25 +4727,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>3897</v>
+        <v>3693</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>22.79</v>
+        <v>21.35</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4756,25 +4756,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>3076</v>
+        <v>4674</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>328</v>
+        <v>464</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>18.09</v>
+        <v>27.33</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4788,22 +4788,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>4586</v>
+        <v>5721</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>28.84</v>
+        <v>35.76</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4817,22 +4817,22 @@
         <v>26</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>135</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>3342</v>
+        <v>4093</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>21.42</v>
+        <v>26.58</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4846,22 +4846,22 @@
         <v>51</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>142</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>8539</v>
+        <v>10036</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>55.45</v>
+        <v>66.03</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4875,22 +4875,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>138</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>3756</v>
+        <v>4623</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>24.71</v>
+        <v>30.62</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4907,19 +4907,19 @@
         <v>147</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2184</v>
+        <v>2676</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>14.86</v>
+        <v>18.2</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4930,25 +4930,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D141" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>1527</v>
+      </c>
+      <c r="G141" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="E141" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>1249</v>
-      </c>
-      <c r="G141" s="0" t="n">
-        <v>210</v>
-      </c>
       <c r="H141" s="0" t="n">
-        <v>9.25</v>
+        <v>11.4</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4959,25 +4959,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1255</v>
+        <v>1456</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>9.44</v>
+        <v>10.87</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4997,16 +4997,16 @@
         <v>119</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>3710</v>
+        <v>4455</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>28.11</v>
+        <v>33.75</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5020,22 +5020,22 @@
         <v>26</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>100</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>2185</v>
+        <v>2790</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>17.07</v>
+        <v>21.63</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5055,16 +5055,16 @@
         <v>117</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>2864</v>
+        <v>3465</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>22.73</v>
+        <v>27.5</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5075,25 +5075,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2287</v>
+        <v>1913</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>19.06</v>
+        <v>15.68</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5104,25 +5104,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1492</v>
+        <v>2940</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>12.54</v>
+        <v>24.5</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5136,22 +5136,22 @@
         <v>14</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>3319</v>
+        <v>4227</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>28.13</v>
+        <v>35.52</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5165,22 +5165,22 @@
         <v>51</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>104</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>3474</v>
+        <v>4337</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>29.95</v>
+        <v>37.07</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5194,22 +5194,22 @@
         <v>14</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>109</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>4319</v>
+        <v>5353</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>38.56</v>
+        <v>48.23</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5223,22 +5223,22 @@
         <v>26</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>89</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>2345</v>
+        <v>2806</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>23.45</v>
+        <v>28.34</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5258,16 +5258,16 @@
         <v>79</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1655</v>
+        <v>1942</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>17.06</v>
+        <v>20.02</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5281,22 +5281,22 @@
         <v>51</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>87</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1634</v>
+        <v>2035</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>17.57</v>
+        <v>21.65</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5307,25 +5307,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>2209</v>
+        <v>1601</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>24.54</v>
+        <v>17.79</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5339,22 +5339,22 @@
         <v>26</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>974</v>
+        <v>2693</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>11.07</v>
+        <v>29.92</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5365,25 +5365,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D156" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="I156" s="0" t="n">
         <v>85</v>
-      </c>
-      <c r="E156" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>1277</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5397,22 +5397,22 @@
         <v>26</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>82</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>3182</v>
+        <v>3935</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>37.88</v>
+        <v>46.29</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5426,22 +5426,22 @@
         <v>22</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>76</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1827</v>
+        <v>2253</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>22.28</v>
+        <v>27.81</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5461,16 +5461,16 @@
         <v>66</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>889</v>
+        <v>1060</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>11.11</v>
+        <v>13.25</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5484,22 +5484,22 @@
         <v>12</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>68</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1317</v>
+        <v>1591</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>17.8</v>
+        <v>21.79</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5519,16 +5519,16 @@
         <v>68</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1490</v>
+        <v>1842</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>20.69</v>
+        <v>25.58</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5548,16 +5548,16 @@
         <v>56</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1960</v>
+        <v>2440</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>32.67</v>
+        <v>40.67</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5577,16 +5577,16 @@
         <v>50</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>751</v>
+        <v>922</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>13.65</v>
+        <v>16.76</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5603,19 +5603,19 @@
         <v>52</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1115</v>
+        <v>1339</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>21.44</v>
+        <v>25.75</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5629,22 +5629,22 @@
         <v>51</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1104</v>
+        <v>1820</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>21.23</v>
+        <v>35.69</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5655,25 +5655,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1415</v>
+        <v>1024</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>27.21</v>
+        <v>20.48</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5684,25 +5684,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>805</v>
+        <v>1346</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>16.1</v>
+        <v>26.92</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5716,22 +5716,22 @@
         <v>51</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1033</v>
+        <v>1233</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>21.08</v>
+        <v>25.69</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5751,16 +5751,16 @@
         <v>42</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>546</v>
+        <v>683</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>12.13</v>
+        <v>15.18</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5780,16 +5780,16 @@
         <v>37</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>469</v>
+        <v>575</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>10.42</v>
+        <v>12.78</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5803,22 +5803,22 @@
         <v>51</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>8.95</v>
+        <v>10.2</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5829,25 +5829,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>765</v>
+        <v>1280</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>18.66</v>
+        <v>30.48</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5864,19 +5864,19 @@
         <v>41</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1058</v>
+        <v>1144</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>25.8</v>
+        <v>27.9</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5887,25 +5887,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E174" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>918</v>
+      </c>
+      <c r="G174" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F174" s="0" t="n">
-        <v>928</v>
-      </c>
-      <c r="G174" s="0" t="n">
-        <v>43</v>
-      </c>
       <c r="H174" s="0" t="n">
-        <v>22.63</v>
+        <v>22.95</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5916,25 +5916,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>727</v>
+        <v>978</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>18.18</v>
+        <v>24.45</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5954,16 +5954,16 @@
         <v>31</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>696</v>
+        <v>837</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>17.85</v>
+        <v>21.46</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5983,16 +5983,16 @@
         <v>37</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>897</v>
+        <v>1106</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>23.61</v>
+        <v>29.11</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6012,16 +6012,16 @@
         <v>31</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>652</v>
+        <v>803</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>18.11</v>
+        <v>22.31</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6035,22 +6035,22 @@
         <v>26</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>13.21</v>
+        <v>19.17</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6064,22 +6064,22 @@
         <v>26</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>15.35</v>
+        <v>17.09</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6099,16 +6099,16 @@
         <v>28</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>705</v>
+        <v>943</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>21.36</v>
+        <v>28.58</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6128,16 +6128,16 @@
         <v>29</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>639</v>
+        <v>798</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>19.97</v>
+        <v>24.94</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6148,25 +6148,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>767</v>
+        <v>400</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>26.45</v>
+        <v>13.79</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6177,25 +6177,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>328</v>
+        <v>944</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>11.31</v>
+        <v>32.55</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6215,16 +6215,16 @@
         <v>26</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>872</v>
+        <v>1153</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>31.14</v>
+        <v>41.18</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6244,16 +6244,16 @@
         <v>24</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>512</v>
+        <v>632</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>18.96</v>
+        <v>23.41</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6273,16 +6273,16 @@
         <v>26</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>473</v>
+        <v>604</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>18.19</v>
+        <v>23.23</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6293,25 +6293,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>454</v>
+        <v>335</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>20.64</v>
+        <v>15.23</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6322,25 +6322,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>269</v>
+        <v>530</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>12.23</v>
+        <v>24.09</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6360,16 +6360,16 @@
         <v>19</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>3.71</v>
+        <v>4.9</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6380,25 +6380,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>254</v>
+        <v>443</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>25</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>13.37</v>
+        <v>22.15</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6409,25 +6409,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>18.05</v>
+        <v>17.37</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6438,25 +6438,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>12.94</v>
+        <v>10.61</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6467,7 +6467,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>18</v>
@@ -6476,16 +6476,16 @@
         <v>16</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>14.22</v>
+        <v>16.28</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6496,25 +6496,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>9.71</v>
+        <v>18.17</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6531,19 +6531,19 @@
         <v>17</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>15.82</v>
+        <v>10.88</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6560,19 +6560,19 @@
         <v>17</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>158</v>
+        <v>351</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>9.29</v>
+        <v>20.65</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6592,16 +6592,16 @@
         <v>13</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>8.56</v>
+        <v>10.63</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6621,16 +6621,16 @@
         <v>12</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>407</v>
+        <v>528</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>25.44</v>
+        <v>33</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6650,16 +6650,16 @@
         <v>15</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>15.25</v>
+        <v>18.69</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6679,16 +6679,16 @@
         <v>12</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>13.8</v>
+        <v>16.4</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6699,25 +6699,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E202" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="G202" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F202" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="G202" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H202" s="0" t="n">
-        <v>11.36</v>
+        <v>32.86</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6728,25 +6728,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>356</v>
+        <v>204</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>25.43</v>
+        <v>14.57</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6757,25 +6757,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>21.36</v>
+        <v>12</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6795,16 +6795,16 @@
         <v>11</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>36.55</v>
+        <v>43.55</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6815,25 +6815,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>8.91</v>
+        <v>24.73</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6853,16 +6853,16 @@
         <v>9</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>15.89</v>
+        <v>20</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6879,19 +6879,19 @@
         <v>8</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>22.88</v>
+        <v>7.75</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6911,16 +6911,16 @@
         <v>7</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>19.75</v>
+        <v>24.5</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6937,19 +6937,19 @@
         <v>8</v>
       </c>
       <c r="E210" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G210" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F210" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="G210" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H210" s="0" t="n">
-        <v>6</v>
+        <v>29.75</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6966,19 +6966,19 @@
         <v>7</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>15.43</v>
+        <v>12.71</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6989,7 +6989,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>7</v>
@@ -6998,16 +6998,16 @@
         <v>7</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>15.43</v>
+        <v>20.14</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7018,25 +7018,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>10.57</v>
+        <v>17.86</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7056,16 +7056,16 @@
         <v>6</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>23.33</v>
+        <v>28.5</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7085,16 +7085,16 @@
         <v>5</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>18.6</v>
+        <v>25</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7105,7 +7105,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>5</v>
@@ -7114,16 +7114,16 @@
         <v>5</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>25.4</v>
+        <v>31.6</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7134,7 +7134,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>5</v>
@@ -7143,16 +7143,16 @@
         <v>5</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>26.8</v>
+        <v>29.2</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7172,16 +7172,16 @@
         <v>3</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>10.25</v>
+        <v>12.75</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7192,25 +7192,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7221,25 +7221,25 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E220" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G220" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F220" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="G220" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H220" s="0" t="n">
-        <v>29.67</v>
+        <v>14</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7259,16 +7259,16 @@
         <v>3</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>1</v>
+        <v>9.33</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7288,16 +7288,16 @@
         <v>2</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>5.33</v>
+        <v>7</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7308,25 +7308,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7346,16 +7346,16 @@
         <v>2</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7372,19 +7372,19 @@
         <v>2</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7401,19 +7401,19 @@
         <v>2</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>5.5</v>
+        <v>39</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7433,16 +7433,16 @@
         <v>2</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>29.5</v>
+        <v>14.5</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7462,16 +7462,16 @@
         <v>1</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7491,16 +7491,16 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7511,7 +7511,7 @@
         <v>246</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>1</v>
@@ -7520,16 +7520,16 @@
         <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7540,7 +7540,7 @@
         <v>247</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>1</v>
@@ -7549,16 +7549,16 @@
         <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
